--- a/example/database/nav.xlsx
+++ b/example/database/nav.xlsx
@@ -1,124 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/database-excel/example/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E82C71-57FC-0340-A14A-1EEAF335496B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="13740" xr2:uid="{A2334584-D7CC-B946-98AF-F0A59B373EEE}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nav_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -128,44 +109,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,31 +174,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -245,23 +209,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,154 +220,181 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E3832A-5048-6241-9ABD-E8898021EB57}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -434,20 +408,466 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/example/database/nav.xlsx
+++ b/example/database/nav.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>nav_name</t>
-  </si>
-  <si>
-    <t>中文</t>
   </si>
   <si>
     <t>aaa</t>
@@ -405,111 +402,115 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -517,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
